--- a/DC1/costed bill-of-materials.xlsx
+++ b/DC1/costed bill-of-materials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiaoyao\Desktop\EGR121\EGR121\DC1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5DC2E6-2178-4E14-8E18-76E267353A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAC901B-63FD-4CA3-B0A1-56458DC16BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="7690" windowWidth="17900" windowHeight="10090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,67 +51,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Grip, Left Hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grip, Right Hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Screws, Housing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Motor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch, Motor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clip Power Cord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Controller, Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Controller, Rheostat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Screws, Chuck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key, Chuck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABS Plastic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC Plastic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Part Total = 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Cost = 7.10</t>
+    <t>the watch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plastic cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screws for the cap for battery container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the motherboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screws for the cap for battery cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrist straps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sillicon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">blue touch pad for the </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batteries 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screws for the motherboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cap for the battery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screws for the battery cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AA batteries </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side caps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screws for the side cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the cap on the top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hat for the contorller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mother board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screws for the controller and mother board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screws for the motherboard (hat)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>braket for (securing the motherboard?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cover (connecting motherboard and buttons)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">springs for the poles of the </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cap for power container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screws for the cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screws near the wheel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the battery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screws on the sides</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">wheels </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motherboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the back of the car (blue)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geers (big)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geers (small)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor melons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cap for the </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rubber loop on the wheel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the silicon cap on the motherboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screws</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button frame on the top cap ()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rubber on the buttonn frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wires</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lights</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,23 +568,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.52734375" customWidth="1"/>
+    <col min="3" max="3" width="9.64453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.17578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,152 +604,416 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="D11">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
         <v>21</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
